--- a/Civilworks cost/Work Schedule/Kishoregonj Packages/finalestimate_kishoregonjprotectivework/Flood Fuse -14_12.10.2020/Flood Fuse -14_12.10.2020/Pac-33/P-33, Abstruct Cost.xlsx
+++ b/Civilworks cost/Work Schedule/Kishoregonj Packages/finalestimate_kishoregonjprotectivework/Flood Fuse -14_12.10.2020/Flood Fuse -14_12.10.2020/Pac-33/P-33, Abstruct Cost.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Work Schedule\Kishoregonj Packages\finalestimate_kishoregonjprotectivework\Flood Fuse -14_12.10.2020\Flood Fuse -14_12.10.2020\Pac-33\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Protective Abstract" sheetId="3" r:id="rId1"/>
     <sheet name="Protective Detail" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -870,12 +875,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1592,18 +1597,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1615,30 +1644,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1650,6 +1655,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1698,7 +1706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1730,9 +1738,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1764,6 +1773,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1939,23 +1949,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="83.25" customHeight="1">
+    <row r="2" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="156" t="s">
         <v>148</v>
       </c>
@@ -1968,7 +1978,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -1976,7 +1986,7 @@
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="24">
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
@@ -1997,7 +2007,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -2017,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="58.5" customHeight="1">
+    <row r="6" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>27861.924999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="288">
+    <row r="7" spans="1:9" ht="252" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>6913770.7869999986</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="273.75" customHeight="1">
+    <row r="8" spans="1:9" ht="273.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>2536293.0424999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72" customHeight="1">
+    <row r="9" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -2105,7 +2115,7 @@
         <v>272928.93424999993</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="80.25" customHeight="1">
+    <row r="10" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>42</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>2466207.5591999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="310.5" customHeight="1">
+    <row r="11" spans="1:9" ht="310.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
@@ -2149,7 +2159,7 @@
         <v>11474738.762999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="110.25" customHeight="1">
+    <row r="12" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>46</v>
       </c>
@@ -2171,7 +2181,7 @@
         <v>6179143.3820999982</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45.75" customHeight="1">
+    <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
         <v>48</v>
@@ -2191,7 +2201,7 @@
         <v>6568438.5902999975</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="152.25" customHeight="1">
+    <row r="14" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>49</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>53425976.594999976</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.25" customHeight="1">
+    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="25" t="s">
         <v>51</v>
@@ -2233,7 +2243,7 @@
         <v>13149124.166666666</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="66.75" customHeight="1">
+    <row r="16" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>52</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>3257561.0585699994</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="26" t="s">
         <v>54</v>
@@ -2275,7 +2285,7 @@
         <v>5102468.526899999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="132">
+    <row r="18" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
@@ -2297,7 +2307,7 @@
         <v>1688321.9279999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="108">
+    <row r="19" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>57</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>31837230.884516135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="9" t="s">
         <v>26</v>
@@ -2329,7 +2339,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="178.5">
+    <row r="21" spans="1:6" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>967050.85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="89.25">
+    <row r="22" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2381,7 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="63.75">
+    <row r="23" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="102">
+    <row r="24" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="165.75">
+    <row r="25" spans="1:6" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
@@ -2434,7 +2444,7 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="51">
+    <row r="26" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="76.5">
+    <row r="27" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2486,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="154"/>
       <c r="B28" s="159" t="s">
         <v>29</v>
@@ -2489,7 +2499,7 @@
         <v>146843289.71300274</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="35"/>
       <c r="C29" s="34"/>
@@ -2497,7 +2507,7 @@
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -2505,7 +2515,7 @@
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -2513,7 +2523,7 @@
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -2521,7 +2531,7 @@
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -2529,7 +2539,7 @@
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -2537,7 +2547,7 @@
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -2545,7 +2555,7 @@
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -2553,7 +2563,7 @@
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -2561,7 +2571,7 @@
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -2569,7 +2579,7 @@
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -2588,83 +2598,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="81" customHeight="1">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="174"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="166"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="29.25" customHeight="1">
+    <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
       <c r="L2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1">
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="164"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="163"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="46" t="s">
         <v>61</v>
@@ -2680,7 +2690,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="49"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="50" t="s">
         <v>62</v>
@@ -2696,7 +2706,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="49"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="51" t="s">
         <v>63</v>
@@ -2725,7 +2735,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="49"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="51" t="s">
         <v>63</v>
@@ -2754,7 +2764,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="49"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="56" t="s">
         <v>63</v>
@@ -2781,7 +2791,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="50"/>
       <c r="C9" s="48"/>
@@ -2804,7 +2814,7 @@
       <c r="K9" s="34"/>
       <c r="L9" s="49"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="50" t="s">
         <v>67</v>
@@ -2820,7 +2830,7 @@
       <c r="K10" s="34"/>
       <c r="L10" s="49"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="51" t="s">
         <v>63</v>
@@ -2849,7 +2859,7 @@
       <c r="K11" s="34"/>
       <c r="L11" s="49"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="51" t="s">
         <v>63</v>
@@ -2878,7 +2888,7 @@
       <c r="K12" s="34"/>
       <c r="L12" s="49"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="62" t="s">
         <v>63</v>
@@ -2907,7 +2917,7 @@
       <c r="K13" s="34"/>
       <c r="L13" s="49"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="50"/>
       <c r="C14" s="48"/>
@@ -2930,7 +2940,7 @@
       <c r="K14" s="34"/>
       <c r="L14" s="49"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
@@ -2951,7 +2961,7 @@
       <c r="K15" s="34"/>
       <c r="L15" s="49"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="66" t="s">
         <v>69</v>
@@ -2984,7 +2994,7 @@
         <v>75.833333333333329</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="74"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
@@ -3000,7 +3010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="190.5" customHeight="1">
+    <row r="18" spans="1:15" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>73</v>
       </c>
@@ -3017,7 +3027,7 @@
       <c r="J18" s="34"/>
       <c r="L18" s="49"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="78" t="s">
         <v>75</v>
@@ -3033,7 +3043,7 @@
       <c r="K19" s="80"/>
       <c r="L19" s="45"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="56" t="s">
         <v>63</v>
@@ -3062,7 +3072,7 @@
       <c r="K20" s="80"/>
       <c r="L20" s="45"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="81" t="s">
         <v>63</v>
@@ -3091,7 +3101,7 @@
       <c r="K21" s="80"/>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="50"/>
       <c r="C22" s="48"/>
@@ -3114,7 +3124,7 @@
       <c r="K22" s="80"/>
       <c r="L22" s="45"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="85" t="s">
         <v>76</v>
@@ -3130,7 +3140,7 @@
       <c r="K23" s="80"/>
       <c r="L23" s="45"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
       <c r="B24" s="48" t="s">
         <v>77</v>
@@ -3155,7 +3165,7 @@
       <c r="K24" s="80"/>
       <c r="L24" s="45"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="87" t="s">
         <v>79</v>
@@ -3177,8 +3187,16 @@
       </c>
       <c r="K25" s="80"/>
       <c r="L25" s="45"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="N25">
+        <f>I25/965</f>
+        <v>25.579295336787567</v>
+      </c>
+      <c r="O25">
+        <f>N25*0.5</f>
+        <v>12.789647668393783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="50" t="s">
         <v>67</v>
@@ -3194,7 +3212,7 @@
       <c r="K26" s="80"/>
       <c r="L26" s="45"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="56" t="s">
         <v>63</v>
@@ -3223,7 +3241,7 @@
       <c r="K27" s="80"/>
       <c r="L27" s="45"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="49"/>
       <c r="B28" s="56" t="s">
         <v>63</v>
@@ -3252,7 +3270,7 @@
       <c r="K28" s="80"/>
       <c r="L28" s="45"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="81" t="s">
         <v>63</v>
@@ -3281,7 +3299,7 @@
       <c r="K29" s="80"/>
       <c r="L29" s="45"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="48"/>
@@ -3304,7 +3322,7 @@
       <c r="K30" s="80"/>
       <c r="L30" s="45"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="91" t="s">
         <v>80</v>
@@ -3331,7 +3349,7 @@
       <c r="K31" s="80"/>
       <c r="L31" s="45"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="94"/>
       <c r="B32" s="87" t="s">
         <v>81</v>
@@ -3350,8 +3368,16 @@
       </c>
       <c r="K32" s="80"/>
       <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="N32">
+        <f>I32/1155</f>
+        <v>31.659298701298699</v>
+      </c>
+      <c r="O32">
+        <f>N32*0.5</f>
+        <v>15.829649350649349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="94"/>
       <c r="B33" s="87" t="s">
         <v>82</v>
@@ -3367,7 +3393,7 @@
       <c r="K33" s="80"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="94"/>
       <c r="B34" s="87"/>
       <c r="C34" s="95">
@@ -3397,7 +3423,7 @@
       <c r="K34" s="80"/>
       <c r="L34" s="45"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="94"/>
       <c r="B35" s="88" t="s">
         <v>84</v>
@@ -3413,7 +3439,7 @@
       <c r="K35" s="97"/>
       <c r="L35" s="45"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="94"/>
       <c r="B36" s="50" t="s">
         <v>85</v>
@@ -3427,7 +3453,7 @@
       <c r="K36" s="97"/>
       <c r="L36" s="45"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="94"/>
       <c r="B37" s="50"/>
       <c r="C37" s="80"/>
@@ -3443,7 +3469,7 @@
       <c r="K37" s="97"/>
       <c r="L37" s="45"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="94"/>
       <c r="B38" s="50" t="s">
         <v>80</v>
@@ -3472,7 +3498,7 @@
       <c r="K38" s="97"/>
       <c r="L38" s="45"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="94"/>
       <c r="B39" s="50" t="s">
         <v>88</v>
@@ -3490,7 +3516,7 @@
       <c r="K39" s="101"/>
       <c r="L39" s="45"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="94"/>
       <c r="B40" s="50"/>
       <c r="C40" s="48"/>
@@ -3511,7 +3537,7 @@
       <c r="K40" s="80"/>
       <c r="L40" s="45"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="49"/>
       <c r="B41" s="88" t="s">
         <v>89</v>
@@ -3536,7 +3562,7 @@
       <c r="K41" s="80"/>
       <c r="L41" s="45"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="49"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
@@ -3553,7 +3579,7 @@
         <v>16083.024999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="106"/>
       <c r="B43" s="47" t="s">
         <v>90</v>
@@ -3585,7 +3611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="154.5" customHeight="1">
+    <row r="44" spans="1:12" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="110" t="s">
         <v>92</v>
       </c>
@@ -3603,7 +3629,7 @@
       <c r="K44" s="171"/>
       <c r="L44" s="45"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="49"/>
       <c r="B45" s="48" t="s">
         <v>94</v>
@@ -3627,7 +3653,7 @@
         <v>16083.024999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="106"/>
       <c r="B46" s="46"/>
       <c r="C46" s="47"/>
@@ -3643,25 +3669,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="50.25" customHeight="1">
+    <row r="47" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="161"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="164"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="163"/>
       <c r="L47" s="45"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="49"/>
       <c r="B48" s="48" t="s">
         <v>94</v>
@@ -3685,7 +3711,7 @@
         <v>16083.024999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="106"/>
       <c r="B49" s="46"/>
       <c r="C49" s="47"/>
@@ -3701,25 +3727,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="59.25" customHeight="1">
+    <row r="50" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="164"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="163"/>
       <c r="L50" s="45"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="49"/>
       <c r="B51" s="87" t="s">
         <v>62</v>
@@ -3735,7 +3761,7 @@
       <c r="K51" s="97"/>
       <c r="L51" s="45"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="49"/>
       <c r="B52" s="56" t="s">
         <v>63</v>
@@ -3764,7 +3790,7 @@
       <c r="K52" s="97"/>
       <c r="L52" s="45"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="49"/>
       <c r="B53" s="81" t="s">
         <v>63</v>
@@ -3793,7 +3819,7 @@
       <c r="K53" s="97"/>
       <c r="L53" s="45"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="49"/>
       <c r="B54" s="50"/>
       <c r="C54" s="48"/>
@@ -3816,7 +3842,7 @@
       <c r="K54" s="97"/>
       <c r="L54" s="45"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="49"/>
       <c r="B55" s="50" t="s">
         <v>98</v>
@@ -3832,7 +3858,7 @@
       <c r="K55" s="97"/>
       <c r="L55" s="45"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="49"/>
       <c r="B56" s="50" t="s">
         <v>99</v>
@@ -3868,7 +3894,7 @@
       </c>
       <c r="L56" s="114"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="49"/>
       <c r="B57" s="87" t="s">
         <v>100</v>
@@ -3884,7 +3910,7 @@
       <c r="K57" s="116"/>
       <c r="L57" s="117"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="49"/>
       <c r="B58" s="87" t="s">
         <v>85</v>
@@ -3900,7 +3926,7 @@
       <c r="K58" s="116"/>
       <c r="L58" s="117"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="49"/>
       <c r="B59" s="50" t="s">
         <v>101</v>
@@ -3916,7 +3942,7 @@
       <c r="K59" s="116"/>
       <c r="L59" s="117"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="49"/>
       <c r="B60" s="50" t="s">
         <v>99</v>
@@ -3954,7 +3980,7 @@
         <v>1945.0199999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="49"/>
       <c r="B61" s="50"/>
       <c r="C61" s="58"/>
@@ -3973,7 +3999,7 @@
       </c>
       <c r="L61" s="117"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="49"/>
       <c r="B62" s="50"/>
       <c r="C62" s="48"/>
@@ -3991,25 +4017,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="177.75" customHeight="1">
+    <row r="63" spans="1:12" ht="177.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="165" t="s">
+      <c r="B63" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="166"/>
-      <c r="D63" s="166"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="166"/>
-      <c r="I63" s="166"/>
-      <c r="J63" s="166"/>
-      <c r="K63" s="166"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
+      <c r="E63" s="174"/>
+      <c r="F63" s="174"/>
+      <c r="G63" s="174"/>
+      <c r="H63" s="174"/>
+      <c r="I63" s="174"/>
+      <c r="J63" s="174"/>
+      <c r="K63" s="174"/>
       <c r="L63" s="120"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="49"/>
       <c r="B64" s="50" t="s">
         <v>62</v>
@@ -4025,7 +4051,7 @@
       <c r="K64" s="48"/>
       <c r="L64" s="45"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="49"/>
       <c r="B65" s="56" t="s">
         <v>63</v>
@@ -4054,7 +4080,7 @@
       <c r="K65" s="48"/>
       <c r="L65" s="45"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="49"/>
       <c r="B66" s="81" t="s">
         <v>63</v>
@@ -4083,7 +4109,7 @@
       <c r="K66" s="48"/>
       <c r="L66" s="45"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="49"/>
       <c r="B67" s="50"/>
       <c r="C67" s="48"/>
@@ -4106,7 +4132,7 @@
       <c r="K67" s="48"/>
       <c r="L67" s="45"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="49"/>
       <c r="B68" s="50" t="s">
         <v>104</v>
@@ -4122,7 +4148,7 @@
       <c r="K68" s="48"/>
       <c r="L68" s="45"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="49"/>
       <c r="B69" s="50" t="s">
         <v>105</v>
@@ -4154,7 +4180,7 @@
       <c r="K69" s="48"/>
       <c r="L69" s="45"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="94"/>
       <c r="B70" s="87" t="s">
         <v>67</v>
@@ -4170,7 +4196,7 @@
       <c r="K70" s="48"/>
       <c r="L70" s="45"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="94"/>
       <c r="B71" s="56" t="s">
         <v>63</v>
@@ -4199,7 +4225,7 @@
       <c r="K71" s="48"/>
       <c r="L71" s="45"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="94"/>
       <c r="B72" s="56" t="s">
         <v>63</v>
@@ -4228,7 +4254,7 @@
       <c r="K72" s="48"/>
       <c r="L72" s="45"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="94"/>
       <c r="B73" s="81" t="s">
         <v>63</v>
@@ -4257,7 +4283,7 @@
       <c r="K73" s="48"/>
       <c r="L73" s="45"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="94"/>
       <c r="B74" s="50"/>
       <c r="C74" s="48"/>
@@ -4280,7 +4306,7 @@
       <c r="K74" s="48"/>
       <c r="L74" s="45"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="94"/>
       <c r="B75" s="91" t="s">
         <v>80</v>
@@ -4307,7 +4333,7 @@
       <c r="K75" s="48"/>
       <c r="L75" s="45"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="94"/>
       <c r="B76" s="50" t="s">
         <v>106</v>
@@ -4323,7 +4349,7 @@
       <c r="K76" s="48"/>
       <c r="L76" s="45"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="94"/>
       <c r="B77" s="50" t="s">
         <v>105</v>
@@ -4355,7 +4381,7 @@
       <c r="K77" s="48"/>
       <c r="L77" s="121"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="94"/>
       <c r="B78" s="78" t="s">
         <v>84</v>
@@ -4371,7 +4397,7 @@
       <c r="K78" s="116"/>
       <c r="L78" s="121"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="94"/>
       <c r="B79" s="50" t="s">
         <v>85</v>
@@ -4387,7 +4413,7 @@
       <c r="K79" s="116"/>
       <c r="L79" s="121"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="94"/>
       <c r="B80" s="50" t="s">
         <v>107</v>
@@ -4407,7 +4433,7 @@
       <c r="K80" s="116"/>
       <c r="L80" s="121"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="94"/>
       <c r="B81" s="50" t="s">
         <v>109</v>
@@ -4439,7 +4465,7 @@
         <v>45875.099999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="49"/>
       <c r="B82" s="50"/>
       <c r="C82" s="48"/>
@@ -4462,25 +4488,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="63.75" customHeight="1">
+    <row r="83" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="163" t="s">
+      <c r="B83" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
-      <c r="G83" s="162"/>
-      <c r="H83" s="162"/>
-      <c r="I83" s="162"/>
-      <c r="J83" s="162"/>
-      <c r="K83" s="162"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="172"/>
+      <c r="F83" s="172"/>
+      <c r="G83" s="172"/>
+      <c r="H83" s="172"/>
+      <c r="I83" s="172"/>
+      <c r="J83" s="172"/>
+      <c r="K83" s="172"/>
       <c r="L83" s="124"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="49"/>
       <c r="B84" s="50" t="s">
         <v>62</v>
@@ -4496,7 +4522,7 @@
       <c r="K84" s="48"/>
       <c r="L84" s="45"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="94"/>
       <c r="B85" s="56" t="s">
         <v>63</v>
@@ -4525,7 +4551,7 @@
       <c r="K85" s="48"/>
       <c r="L85" s="45"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="94"/>
       <c r="B86" s="81" t="s">
         <v>63</v>
@@ -4554,7 +4580,7 @@
       <c r="K86" s="48"/>
       <c r="L86" s="45"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="94"/>
       <c r="B87" s="50"/>
       <c r="C87" s="48"/>
@@ -4577,7 +4603,7 @@
       <c r="K87" s="48"/>
       <c r="L87" s="45"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="94"/>
       <c r="B88" s="50" t="s">
         <v>104</v>
@@ -4593,7 +4619,7 @@
       <c r="K88" s="48"/>
       <c r="L88" s="45"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="94"/>
       <c r="B89" s="50" t="s">
         <v>99</v>
@@ -4625,7 +4651,7 @@
       </c>
       <c r="L89" s="45"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="94"/>
       <c r="B90" s="87" t="s">
         <v>84</v>
@@ -4641,7 +4667,7 @@
       <c r="K90" s="116"/>
       <c r="L90" s="50"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="94"/>
       <c r="B91" s="87" t="s">
         <v>113</v>
@@ -4661,7 +4687,7 @@
       <c r="K91" s="116"/>
       <c r="L91" s="50"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="94"/>
       <c r="B92" s="50" t="s">
         <v>101</v>
@@ -4677,7 +4703,7 @@
       <c r="K92" s="116"/>
       <c r="L92" s="50"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="94"/>
       <c r="B93" s="50" t="s">
         <v>99</v>
@@ -4712,7 +4738,7 @@
       </c>
       <c r="L93" s="50"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="94"/>
       <c r="B94" s="94" t="s">
         <v>114</v>
@@ -4748,7 +4774,7 @@
       </c>
       <c r="L94" s="50"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="94"/>
       <c r="B95" s="50"/>
       <c r="C95" s="61"/>
@@ -4767,7 +4793,7 @@
       </c>
       <c r="L95" s="50"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="94"/>
       <c r="B96" s="50"/>
       <c r="C96" s="61"/>
@@ -4783,7 +4809,7 @@
       </c>
       <c r="L96" s="50"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="94"/>
       <c r="B97" s="50" t="s">
         <v>115</v>
@@ -4814,7 +4840,7 @@
         <v>1070.6099999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="49"/>
       <c r="B98" s="48"/>
       <c r="C98" s="48"/>
@@ -4830,23 +4856,23 @@
       </c>
       <c r="L98" s="128"/>
     </row>
-    <row r="99" spans="1:12" ht="34.5" customHeight="1">
+    <row r="99" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="49"/>
-      <c r="B99" s="167" t="s">
+      <c r="B99" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="168"/>
-      <c r="D99" s="168"/>
-      <c r="E99" s="168"/>
-      <c r="F99" s="168"/>
-      <c r="G99" s="168"/>
-      <c r="H99" s="168"/>
-      <c r="I99" s="168"/>
-      <c r="J99" s="168"/>
-      <c r="K99" s="168"/>
+      <c r="C99" s="176"/>
+      <c r="D99" s="176"/>
+      <c r="E99" s="176"/>
+      <c r="F99" s="176"/>
+      <c r="G99" s="176"/>
+      <c r="H99" s="176"/>
+      <c r="I99" s="176"/>
+      <c r="J99" s="176"/>
+      <c r="K99" s="176"/>
       <c r="L99" s="45"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="49"/>
       <c r="B100" s="80" t="s">
         <v>116</v>
@@ -4867,7 +4893,7 @@
         <v>1070.6099999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="49"/>
       <c r="B101" s="80"/>
       <c r="C101" s="80"/>
@@ -4883,25 +4909,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="86.25" customHeight="1">
+    <row r="102" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="163" t="s">
+      <c r="B102" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="C102" s="162"/>
-      <c r="D102" s="162"/>
-      <c r="E102" s="162"/>
-      <c r="F102" s="162"/>
-      <c r="G102" s="162"/>
-      <c r="H102" s="162"/>
-      <c r="I102" s="162"/>
-      <c r="J102" s="162"/>
-      <c r="K102" s="162"/>
+      <c r="C102" s="172"/>
+      <c r="D102" s="172"/>
+      <c r="E102" s="172"/>
+      <c r="F102" s="172"/>
+      <c r="G102" s="172"/>
+      <c r="H102" s="172"/>
+      <c r="I102" s="172"/>
+      <c r="J102" s="172"/>
+      <c r="K102" s="172"/>
       <c r="L102" s="124"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="49"/>
       <c r="B103" s="87" t="s">
         <v>62</v>
@@ -4917,7 +4943,7 @@
       <c r="K103" s="80"/>
       <c r="L103" s="45"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="49"/>
       <c r="B104" s="56" t="s">
         <v>63</v>
@@ -4946,7 +4972,7 @@
       <c r="K104" s="80"/>
       <c r="L104" s="45"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="49"/>
       <c r="B105" s="81" t="s">
         <v>63</v>
@@ -4975,7 +5001,7 @@
       <c r="K105" s="80"/>
       <c r="L105" s="45"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="49"/>
       <c r="B106" s="50"/>
       <c r="C106" s="48"/>
@@ -4998,7 +5024,7 @@
       <c r="K106" s="80"/>
       <c r="L106" s="45"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="49"/>
       <c r="B107" s="50" t="s">
         <v>119</v>
@@ -5014,7 +5040,7 @@
       <c r="K107" s="80"/>
       <c r="L107" s="45"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="49"/>
       <c r="B108" s="50" t="s">
         <v>105</v>
@@ -5046,7 +5072,7 @@
       <c r="K108" s="80"/>
       <c r="L108" s="45"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="49"/>
       <c r="B109" s="87" t="s">
         <v>100</v>
@@ -5062,7 +5088,7 @@
       <c r="K109" s="80"/>
       <c r="L109" s="50"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="49"/>
       <c r="B110" s="93" t="s">
         <v>63</v>
@@ -5091,7 +5117,7 @@
       <c r="K110" s="80"/>
       <c r="L110" s="50"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="49"/>
       <c r="B111" s="50" t="s">
         <v>109</v>
@@ -5120,7 +5146,7 @@
       <c r="K111" s="80"/>
       <c r="L111" s="50"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="49"/>
       <c r="B112" s="48"/>
       <c r="C112" s="48"/>
@@ -5141,7 +5167,7 @@
       <c r="K112" s="80"/>
       <c r="L112" s="50"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="49"/>
       <c r="B113" s="48" t="s">
         <v>122</v>
@@ -5170,7 +5196,7 @@
       <c r="K113" s="80"/>
       <c r="L113" s="50"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="49"/>
       <c r="B114" s="85" t="s">
         <v>123</v>
@@ -5199,7 +5225,7 @@
       <c r="K114" s="48"/>
       <c r="L114" s="50"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="49"/>
       <c r="B115" s="47" t="s">
         <v>124</v>
@@ -5232,7 +5258,7 @@
         <v>116821.49999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="106"/>
       <c r="B116" s="46"/>
       <c r="C116" s="47"/>
@@ -5255,7 +5281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="49"/>
       <c r="B117" s="88" t="s">
         <v>127</v>
@@ -5271,7 +5297,7 @@
       <c r="K117" s="97"/>
       <c r="L117" s="45"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="49"/>
       <c r="B118" s="88" t="s">
         <v>128</v>
@@ -5287,7 +5313,7 @@
       <c r="K118" s="97"/>
       <c r="L118" s="45"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="49"/>
       <c r="B119" s="50" t="s">
         <v>62</v>
@@ -5303,7 +5329,7 @@
       <c r="K119" s="97"/>
       <c r="L119" s="45"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="49"/>
       <c r="B120" s="56" t="s">
         <v>63</v>
@@ -5332,7 +5358,7 @@
       <c r="K120" s="97"/>
       <c r="L120" s="45"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="94"/>
       <c r="B121" s="58" t="s">
         <v>63</v>
@@ -5361,7 +5387,7 @@
       <c r="K121" s="97"/>
       <c r="L121" s="45"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="49"/>
       <c r="B122" s="56" t="s">
         <v>63</v>
@@ -5388,7 +5414,7 @@
       <c r="K122" s="97"/>
       <c r="L122" s="45"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="49"/>
       <c r="B123" s="50"/>
       <c r="C123" s="48"/>
@@ -5409,7 +5435,7 @@
       <c r="K123" s="97"/>
       <c r="L123" s="45"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="49"/>
       <c r="B124" s="50" t="s">
         <v>129</v>
@@ -5443,7 +5469,7 @@
       </c>
       <c r="L124" s="45"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="49"/>
       <c r="B125" s="50"/>
       <c r="C125" s="48"/>
@@ -5459,7 +5485,7 @@
       </c>
       <c r="L125" s="45"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="49"/>
       <c r="B126" s="50" t="s">
         <v>130</v>
@@ -5487,7 +5513,7 @@
       </c>
       <c r="L126" s="45"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="49"/>
       <c r="B127" s="50"/>
       <c r="C127" s="48"/>
@@ -5511,7 +5537,7 @@
         <v>34516.666666666664</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="106"/>
       <c r="B128" s="46"/>
       <c r="C128" s="47"/>
@@ -5529,7 +5555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="48.75" customHeight="1">
+    <row r="129" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="110" t="s">
         <v>132</v>
       </c>
@@ -5547,7 +5573,7 @@
       <c r="K129" s="171"/>
       <c r="L129" s="45"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="49"/>
       <c r="B130" s="50"/>
       <c r="C130" s="58" t="s">
@@ -5563,7 +5589,7 @@
       <c r="K130" s="139"/>
       <c r="L130" s="45"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="49"/>
       <c r="B131" s="50"/>
       <c r="C131" s="132">
@@ -5597,7 +5623,7 @@
       </c>
       <c r="L131" s="45"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="49"/>
       <c r="B132" s="50"/>
       <c r="C132" s="48"/>
@@ -5613,7 +5639,7 @@
       </c>
       <c r="L132" s="45"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="49"/>
       <c r="B133" s="50"/>
       <c r="C133" s="58" t="s">
@@ -5629,7 +5655,7 @@
       <c r="K133" s="139"/>
       <c r="L133" s="45"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="49"/>
       <c r="B134" s="50"/>
       <c r="C134" s="132">
@@ -5663,7 +5689,7 @@
       </c>
       <c r="L134" s="45"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="49"/>
       <c r="B135" s="46"/>
       <c r="C135" s="47"/>
@@ -5679,7 +5705,7 @@
       </c>
       <c r="L135" s="45"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="49"/>
       <c r="B136" s="50"/>
       <c r="C136" s="48"/>
@@ -5700,7 +5726,7 @@
       </c>
       <c r="L136" s="45"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="49"/>
       <c r="B137" s="50"/>
       <c r="C137" s="48"/>
@@ -5716,7 +5742,7 @@
       </c>
       <c r="L137" s="45"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="49"/>
       <c r="B138" s="50" t="s">
         <v>136</v>
@@ -5747,7 +5773,7 @@
         <v>2335.1189999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="106"/>
       <c r="B139" s="46"/>
       <c r="C139" s="47"/>
@@ -5765,7 +5791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="49"/>
       <c r="B140" s="87" t="s">
         <v>54</v>
@@ -5781,7 +5807,7 @@
       <c r="K140" s="97"/>
       <c r="L140" s="45"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="49"/>
       <c r="B141" s="50"/>
       <c r="C141" s="48" t="s">
@@ -5805,7 +5831,7 @@
         <v>2335.1189999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="106"/>
       <c r="B142" s="46"/>
       <c r="C142" s="47"/>
@@ -5821,25 +5847,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="83.25" customHeight="1">
+    <row r="143" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="B143" s="161" t="s">
+      <c r="B143" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="162"/>
-      <c r="D143" s="162"/>
-      <c r="E143" s="162"/>
-      <c r="F143" s="162"/>
-      <c r="G143" s="162"/>
-      <c r="H143" s="162"/>
-      <c r="I143" s="162"/>
-      <c r="J143" s="162"/>
-      <c r="K143" s="162"/>
+      <c r="C143" s="172"/>
+      <c r="D143" s="172"/>
+      <c r="E143" s="172"/>
+      <c r="F143" s="172"/>
+      <c r="G143" s="172"/>
+      <c r="H143" s="172"/>
+      <c r="I143" s="172"/>
+      <c r="J143" s="172"/>
+      <c r="K143" s="172"/>
       <c r="L143" s="124"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="49"/>
       <c r="B144" s="48" t="s">
         <v>140</v>
@@ -5855,7 +5881,7 @@
       <c r="K144" s="48"/>
       <c r="L144" s="45"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="49"/>
       <c r="B145" s="50" t="s">
         <v>62</v>
@@ -5871,7 +5897,7 @@
       <c r="K145" s="48"/>
       <c r="L145" s="45"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="49"/>
       <c r="B146" s="56" t="s">
         <v>63</v>
@@ -5900,7 +5926,7 @@
       <c r="K146" s="48"/>
       <c r="L146" s="45"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="94"/>
       <c r="B147" s="56" t="s">
         <v>63</v>
@@ -5929,7 +5955,7 @@
       <c r="K147" s="48"/>
       <c r="L147" s="45"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="49"/>
       <c r="B148" s="56" t="s">
         <v>63</v>
@@ -5956,7 +5982,7 @@
       <c r="K148" s="48"/>
       <c r="L148" s="45"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="49"/>
       <c r="B149" s="50"/>
       <c r="C149" s="48"/>
@@ -5979,7 +6005,7 @@
       <c r="K149" s="48"/>
       <c r="L149" s="45"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="49"/>
       <c r="B150" s="80" t="s">
         <v>141</v>
@@ -5995,7 +6021,7 @@
       <c r="K150" s="80"/>
       <c r="L150" s="45"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="49"/>
       <c r="B151" s="92">
         <f>G149</f>
@@ -6033,7 +6059,7 @@
         <v>130.79999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="106"/>
       <c r="B152" s="92"/>
       <c r="C152" s="137"/>
@@ -6047,25 +6073,25 @@
       <c r="K152" s="58"/>
       <c r="L152" s="111"/>
     </row>
-    <row r="153" spans="1:12" ht="70.5" customHeight="1">
+    <row r="153" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B153" s="161" t="s">
+      <c r="B153" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="162"/>
-      <c r="D153" s="162"/>
-      <c r="E153" s="162"/>
-      <c r="F153" s="162"/>
-      <c r="G153" s="162"/>
-      <c r="H153" s="162"/>
-      <c r="I153" s="162"/>
-      <c r="J153" s="162"/>
-      <c r="K153" s="162"/>
+      <c r="C153" s="172"/>
+      <c r="D153" s="172"/>
+      <c r="E153" s="172"/>
+      <c r="F153" s="172"/>
+      <c r="G153" s="172"/>
+      <c r="H153" s="172"/>
+      <c r="I153" s="172"/>
+      <c r="J153" s="172"/>
+      <c r="K153" s="172"/>
       <c r="L153" s="124"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="49"/>
       <c r="B154" s="80" t="s">
         <v>140</v>
@@ -6080,8 +6106,16 @@
       <c r="J154" s="80"/>
       <c r="K154" s="80"/>
       <c r="L154" s="45"/>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="O154">
+        <f>75/7</f>
+        <v>10.714285714285714</v>
+      </c>
+      <c r="P154">
+        <f>O154/50</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="49"/>
       <c r="B155" s="50" t="s">
         <v>67</v>
@@ -6097,7 +6131,7 @@
       <c r="K155" s="80"/>
       <c r="L155" s="45"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="49"/>
       <c r="B156" s="56" t="s">
         <v>63</v>
@@ -6126,7 +6160,7 @@
       <c r="K156" s="80"/>
       <c r="L156" s="45"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="49"/>
       <c r="B157" s="56" t="s">
         <v>63</v>
@@ -6155,7 +6189,7 @@
       <c r="K157" s="80"/>
       <c r="L157" s="45"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="49"/>
       <c r="B158" s="81" t="s">
         <v>63</v>
@@ -6184,7 +6218,7 @@
       <c r="K158" s="80"/>
       <c r="L158" s="45"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="49"/>
       <c r="B159" s="50"/>
       <c r="C159" s="48"/>
@@ -6207,7 +6241,7 @@
       <c r="K159" s="80"/>
       <c r="L159" s="45"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="49"/>
       <c r="B160" s="80" t="s">
         <v>144</v>
@@ -6223,7 +6257,7 @@
       <c r="K160" s="80"/>
       <c r="L160" s="45"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="49"/>
       <c r="B161" s="80" t="s">
         <v>141</v>
@@ -6259,7 +6293,7 @@
       </c>
       <c r="L161" s="111"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="49"/>
       <c r="B162" s="80"/>
       <c r="C162" s="93"/>
@@ -6273,7 +6307,7 @@
       <c r="K162" s="146"/>
       <c r="L162" s="105"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="49"/>
       <c r="B163" s="93"/>
       <c r="C163" s="125"/>
@@ -6294,7 +6328,7 @@
       </c>
       <c r="L163" s="45"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="49"/>
       <c r="B164" s="99" t="s">
         <v>145</v>
@@ -6328,7 +6362,7 @@
       </c>
       <c r="L164" s="45"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="49"/>
       <c r="B165" s="80" t="s">
         <v>146</v>
@@ -6344,7 +6378,7 @@
       <c r="K165" s="80"/>
       <c r="L165" s="111"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="49"/>
       <c r="B166" s="80">
         <v>2</v>
@@ -6380,7 +6414,7 @@
       </c>
       <c r="L166" s="105"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="49"/>
       <c r="B167" s="99" t="s">
         <v>145</v>
@@ -6416,8 +6450,12 @@
         <f>J168</f>
         <v>124039.54838709679</v>
       </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="N167">
+        <f>J168/1155</f>
+        <v>107.39354838709679</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="106"/>
       <c r="B168" s="37"/>
       <c r="C168" s="37"/>
@@ -6444,12 +6482,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B44:K44"/>
     <mergeCell ref="B143:K143"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="B50:K50"/>
@@ -6458,6 +6490,12 @@
     <mergeCell ref="B99:K99"/>
     <mergeCell ref="B102:K102"/>
     <mergeCell ref="B129:K129"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B44:K44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
